--- a/data/menues.xlsx
+++ b/data/menues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wu-my.sharepoint.com/personal/clara_himmelbauer_wu_ac_at/Documents/Dokumente/mittagsmenue_wu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9472B0A3-7620-41E3-90EE-EB7F5D1E2C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{9472B0A3-7620-41E3-90EE-EB7F5D1E2C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456FD8B7-E654-4C1E-8E08-4EA5D5862C47}"/>
   <bookViews>
-    <workbookView xWindow="3924" yWindow="2796" windowWidth="23040" windowHeight="12204" xr2:uid="{E2A8659C-935D-43DD-AAAF-51C66EE55EFC}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{E2A8659C-935D-43DD-AAAF-51C66EE55EFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>Restaurant</t>
   </si>
@@ -189,6 +189,21 @@
   </si>
   <si>
     <t>Pfefferkotelett mit Bratertäpfeln</t>
+  </si>
+  <si>
+    <t>Deli</t>
+  </si>
+  <si>
+    <t>Mit Falafel gefüllte Paprika auf Tomatensauce und Reis</t>
+  </si>
+  <si>
+    <t>Blue-Cheese Risotto</t>
+  </si>
+  <si>
+    <t>Linsen-Dal mit Öfferl Sauerteigbrot</t>
+  </si>
+  <si>
+    <t>Züricher Geschnetzeltes mit Reis</t>
   </si>
 </sst>
 </file>
@@ -560,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEAE08E-9609-4AAC-B9E3-50D36E1CB36E}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,6 +1044,59 @@
         <v>50</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
